--- a/Data/toplane/xlsx/Toplane_2015.xlsx
+++ b/Data/toplane/xlsx/Toplane_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\Data\toplane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Spatialization\Data\toplane\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -599,7 +599,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1269,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1446,6 +1452,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1744,7 +1753,7 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1870,8 +1879,8 @@
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
       <c r="G3" s="58"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3">
         <f>($J$2/$R$20)*R3</f>
         <v>318013.55546284589</v>
@@ -1897,10 +1906,10 @@
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4">
-        <f>($J$2/$R$20)*R4</f>
+        <f t="shared" ref="J3:J19" si="0">($J$2/$R$20)*R4</f>
         <v>2116644.0345099955</v>
       </c>
       <c r="K4" s="57"/>
@@ -1924,10 +1933,10 @@
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5">
-        <f>($J$2/$R$20)*R5</f>
+        <f t="shared" si="0"/>
         <v>899707.40870632045</v>
       </c>
       <c r="K5" s="57"/>
@@ -1951,10 +1960,10 @@
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
       <c r="G6" s="58"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6">
-        <f>($J$2/$R$20)*R6</f>
+        <f t="shared" si="0"/>
         <v>967374.41860189009</v>
       </c>
       <c r="K6" s="57"/>
@@ -1978,10 +1987,10 @@
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
       <c r="G7" s="58"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
       <c r="J7">
-        <f>($J$2/$R$20)*R7</f>
+        <f t="shared" si="0"/>
         <v>2086589.6144141234</v>
       </c>
       <c r="K7" s="57"/>
@@ -2005,10 +2014,10 @@
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
       <c r="G8" s="58"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
       <c r="J8">
-        <f>($J$2/$R$20)*R8</f>
+        <f t="shared" si="0"/>
         <v>2062275.1250838924</v>
       </c>
       <c r="K8" s="57"/>
@@ -2032,10 +2041,10 @@
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
       <c r="G9" s="58"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
       <c r="J9">
-        <f>($J$2/$R$20)*R9</f>
+        <f t="shared" si="0"/>
         <v>672463.19317715231</v>
       </c>
       <c r="K9" s="57"/>
@@ -2059,10 +2068,10 @@
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
       <c r="G10" s="58"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
       <c r="J10">
-        <f>($J$2/$R$20)*R10</f>
+        <f t="shared" si="0"/>
         <v>624333.33893109381</v>
       </c>
       <c r="K10" s="57"/>
@@ -2086,10 +2095,10 @@
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
       <c r="G11" s="58"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
       <c r="J11">
-        <f>($J$2/$R$20)*R11</f>
+        <f t="shared" si="0"/>
         <v>2890393.8320671865</v>
       </c>
       <c r="K11" s="57"/>
@@ -2113,10 +2122,10 @@
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
       <c r="G12" s="58"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12">
-        <f>($J$2/$R$20)*R12</f>
+        <f t="shared" si="0"/>
         <v>845374.15102410328</v>
       </c>
       <c r="K12" s="57"/>
@@ -2140,10 +2149,10 @@
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
       <c r="G13" s="58"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
       <c r="J13">
-        <f>($J$2/$R$20)*R13</f>
+        <f t="shared" si="0"/>
         <v>2326098.0298400647</v>
       </c>
       <c r="K13" s="57"/>
@@ -2167,10 +2176,10 @@
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
       <c r="G14" s="58"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
       <c r="J14">
-        <f>($J$2/$R$20)*R14</f>
+        <f t="shared" si="0"/>
         <v>1427353.2182186656</v>
       </c>
       <c r="K14" s="57"/>
@@ -2194,10 +2203,10 @@
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
       <c r="J15">
-        <f>($J$2/$R$20)*R15</f>
+        <f t="shared" si="0"/>
         <v>580695.60441466747</v>
       </c>
       <c r="K15" s="57"/>
@@ -2221,10 +2230,10 @@
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
       <c r="G16" s="58"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
       <c r="J16">
-        <f>($J$2/$R$20)*R16</f>
+        <f t="shared" si="0"/>
         <v>244713.57003329304</v>
       </c>
       <c r="K16" s="57"/>
@@ -2248,10 +2257,10 @@
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17">
-        <f>($J$2/$R$20)*R17</f>
+        <f t="shared" si="0"/>
         <v>766227.27959725144</v>
       </c>
       <c r="K17" s="57"/>
@@ -2275,10 +2284,10 @@
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18">
-        <f>($J$2/$R$20)*R18</f>
+        <f t="shared" si="0"/>
         <v>459087.50601962628</v>
       </c>
       <c r="K18" s="57"/>
@@ -2302,10 +2311,10 @@
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19">
-        <f>($J$2/$R$20)*R19</f>
+        <f t="shared" si="0"/>
         <v>2333050.1198978289</v>
       </c>
       <c r="K19" s="57"/>

--- a/Data/toplane/xlsx/Toplane_2015.xlsx
+++ b/Data/toplane/xlsx/Toplane_2015.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -599,7 +599,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,7 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1283,9 +1289,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1454,8 +1457,12 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1739,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1761,7 +1768,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="80.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1782,34 +1789,34 @@
       <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54" t="s">
         <v>69</v>
       </c>
       <c r="R1" t="s">
@@ -1817,559 +1824,661 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>1355800</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>502148</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>303139</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>60.37</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>30685</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>6.11</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="59">
         <v>17357343</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="59">
         <v>4263051</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>21620394</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>184</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>518</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>2358</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="45">
         <v>61</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="48">
         <v>1812</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="48">
         <v>30193</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="48">
         <v>288397825</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="60">
+        <f>($H$2/$R$20)*R3</f>
+        <v>255308.49996619576</v>
+      </c>
+      <c r="I3" s="60">
+        <f>($I$2/$R$20)*R3</f>
+        <v>62705.055496650079</v>
+      </c>
       <c r="J3">
         <f>($J$2/$R$20)*R3</f>
         <v>318013.55546284589</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="R3">
         <v>8920</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="60">
+        <f t="shared" ref="H4:H19" si="0">($H$2/$R$20)*R4</f>
+        <v>1699289.8702906999</v>
+      </c>
+      <c r="I4" s="60">
+        <f t="shared" ref="I4:I19" si="1">($I$2/$R$20)*R4</f>
+        <v>417354.16421929543</v>
+      </c>
       <c r="J4">
-        <f t="shared" ref="J3:J19" si="0">($J$2/$R$20)*R4</f>
+        <f t="shared" ref="J4:J19" si="2">($J$2/$R$20)*R4</f>
         <v>2116644.0345099955</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
       <c r="R4">
         <v>59370</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="60">
+        <f t="shared" si="0"/>
+        <v>722305.52748283814</v>
+      </c>
+      <c r="I5" s="60">
+        <f t="shared" si="1"/>
+        <v>177401.88122348223</v>
+      </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>($J$2/$R$20)*R5</f>
         <v>899707.40870632045</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
       <c r="R5">
         <v>25236</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="60">
+        <f t="shared" si="0"/>
+        <v>776630.1387985152</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="1"/>
+        <v>190744.27980337481</v>
+      </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>967374.41860189009</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
       <c r="R6">
         <v>27134</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="60">
+        <f t="shared" si="0"/>
+        <v>1675161.4997221457</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="1"/>
+        <v>411428.11469197751</v>
+      </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2086589.6144141234</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
       <c r="R7">
         <v>58527</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60">
+        <f t="shared" si="0"/>
+        <v>1655641.2758458066</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="1"/>
+        <v>406633.84923808562</v>
+      </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2062275.1250838924</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
       <c r="R8">
         <v>57845</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="60">
+        <f t="shared" si="0"/>
+        <v>539868.71371775609</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="1"/>
+        <v>132594.47945939616</v>
+      </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>672463.19317715231</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
       <c r="R9">
         <v>18862</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="60">
+        <f t="shared" si="0"/>
+        <v>501228.97437309643</v>
+      </c>
+      <c r="I10" s="60">
+        <f t="shared" si="1"/>
+        <v>123104.36455799734</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>624333.33893109381</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
       <c r="R10">
         <v>17512</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="60">
+        <f t="shared" si="0"/>
+        <v>2320473.7688071062</v>
+      </c>
+      <c r="I11" s="60">
+        <f t="shared" si="1"/>
+        <v>569920.06326007983</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2890393.8320671865</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
       <c r="R11">
         <v>81073</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="60">
+        <f t="shared" si="0"/>
+        <v>678685.55506708904</v>
+      </c>
+      <c r="I12" s="60">
+        <f t="shared" si="1"/>
+        <v>166688.59595701421</v>
+      </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>845374.15102410328</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
       <c r="R12">
         <v>23712</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="60">
+        <f t="shared" si="0"/>
+        <v>1867444.29151283</v>
+      </c>
+      <c r="I13" s="60">
+        <f t="shared" si="1"/>
+        <v>458653.73832723481</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2326098.0298400647</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
       <c r="R13">
         <v>65245</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="60">
+        <f t="shared" si="0"/>
+        <v>1145911.5588168849</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="1"/>
+        <v>281441.65940178058</v>
+      </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1427353.2182186656</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
       <c r="R14">
         <v>40036</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="60">
+        <f t="shared" si="0"/>
+        <v>466195.61070060497</v>
+      </c>
+      <c r="I15" s="60">
+        <f t="shared" si="1"/>
+        <v>114499.9937140624</v>
+      </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>580695.60441466747</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
       <c r="R15">
         <v>16288</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="60">
+        <f t="shared" si="0"/>
+        <v>196461.6080457363</v>
+      </c>
+      <c r="I16" s="60">
+        <f t="shared" si="1"/>
+        <v>48251.961987556744</v>
+      </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>244713.57003329304</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
       <c r="R16">
         <v>6864</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="60">
+        <f t="shared" si="0"/>
+        <v>615144.65036698198</v>
+      </c>
+      <c r="I17" s="60">
+        <f t="shared" si="1"/>
+        <v>151082.62923026946</v>
+      </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>766227.27959725144</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
       <c r="R17">
         <v>21492</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="60">
+        <f t="shared" si="0"/>
+        <v>368565.8692897649</v>
+      </c>
+      <c r="I18" s="60">
+        <f t="shared" si="1"/>
+        <v>90521.636729861333</v>
+      </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>459087.50601962628</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
       <c r="R18">
         <v>12877</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="60">
+        <f t="shared" si="0"/>
+        <v>1873025.5871959473</v>
+      </c>
+      <c r="I19" s="60">
+        <f t="shared" si="1"/>
+        <v>460024.53270188131</v>
+      </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2333050.1198978289</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
       <c r="R19">
         <v>65440</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>360</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>123</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>93966</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>77</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>32502</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>27</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>4729</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19">
         <v>652</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>246</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>898</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <v>6</v>
       </c>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="49">
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="48">
         <v>95000000</v>
       </c>
       <c r="R20">
@@ -2378,2238 +2487,2238 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>179417</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>59344</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>19693</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>32.700000000000003</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="12">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11">
         <v>1030109</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>506632</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>1536741</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>154.72</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>52.49</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>207214</v>
       </c>
-      <c r="N21" s="47">
+      <c r="N21" s="46">
         <v>8</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="50">
         <v>100</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="50">
         <v>9</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="50">
         <v>6500000</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="13">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="12">
         <v>29401</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>29</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>163</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>1635127</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>387804</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>2022931</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="48">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="47">
         <v>14</v>
       </c>
-      <c r="O22" s="50"/>
-      <c r="P22" s="49">
+      <c r="O22" s="49"/>
+      <c r="P22" s="48">
         <v>2123</v>
       </c>
-      <c r="Q22" s="49">
+      <c r="Q22" s="48">
         <v>26021421</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>3471</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>1242</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>1155</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>93</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>1100</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>645272</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>134831</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>780103</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>107</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>23</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="15">
         <v>130</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="45">
         <v>2</v>
       </c>
-      <c r="O23" s="52">
+      <c r="O23" s="51">
         <v>477</v>
       </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>76203</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>27</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>11986</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>44</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <v>1277</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>11</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>65559</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>159922</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="16">
         <v>815511</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>85</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <v>20</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <v>105</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="45">
         <v>5</v>
       </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="49">
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="48">
         <v>13500000</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>140358</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>55294</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>10107</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>18.27</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="13">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="12">
         <v>534589</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>240326</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>774915</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>82.13</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>27.58</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>109.7</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="46">
         <v>1</v>
       </c>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="51">
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="50">
         <v>9036648</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>57627</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>144</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>825</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>43</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="13">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="12">
         <v>43818</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="12">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="11">
         <v>61.35</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>34.85</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <v>96</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="47">
         <v>5</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="50">
         <v>39667</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <v>745</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="50">
         <v>1019510</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>76511</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>28085</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>7884</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>28</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="13">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="12">
         <v>399106</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>143328</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>542434</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <v>70</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="15">
         <v>22</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="15">
         <v>92</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="45">
         <v>2</v>
       </c>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="49">
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="48">
         <v>10300000</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>80</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>29</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>82</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>27</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="22">
         <v>450</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <v>100</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>550</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <v>50</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="24">
         <v>15</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <v>80</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="45">
         <v>12</v>
       </c>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51">
+      <c r="O28" s="49"/>
+      <c r="P28" s="50">
         <v>1026</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="50">
         <v>6300000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>63</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="13">
+      <c r="C29" s="18"/>
+      <c r="D29" s="12">
         <v>7409</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="13">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="12">
         <v>400157</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>96044</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>496201</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <v>68</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>28</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <v>96</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="46">
         <v>4</v>
       </c>
-      <c r="O29" s="50"/>
-      <c r="P29" s="49">
+      <c r="O29" s="49"/>
+      <c r="P29" s="48">
         <v>1</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="Q29" s="48">
         <v>7200000</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>55</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>194</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>7278</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>37.5</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="13">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="12">
         <v>374371</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>98387</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>472758</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>56</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>16</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <v>72</v>
       </c>
-      <c r="N30" s="48">
+      <c r="N30" s="47">
         <v>4</v>
       </c>
-      <c r="O30" s="50"/>
-      <c r="P30" s="49">
+      <c r="O30" s="49"/>
+      <c r="P30" s="48">
         <v>265</v>
       </c>
-      <c r="Q30" s="49">
+      <c r="Q30" s="48">
         <v>6500000</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>17</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>64</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>3017</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>47.08</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="13">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="12">
         <v>103162</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>39452</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>142614</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="11">
         <v>17.41</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>5.73</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <v>23</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="45">
         <v>3</v>
       </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51">
+      <c r="O31" s="49"/>
+      <c r="P31" s="50">
         <v>2022</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="50">
         <v>384001</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>425</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>148</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>804</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="14">
         <v>52.5</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="13">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="12">
         <v>454</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <v>168</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>622</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>61</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>35</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <v>96</v>
       </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>66</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>245</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>5786</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>25</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="13">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="12">
         <v>307722</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>91917</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <v>399639</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="11">
         <v>46.15</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>13.78</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>59.93</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="46">
         <v>15</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="50">
         <v>338</v>
       </c>
-      <c r="P33" s="51">
+      <c r="P33" s="50">
         <v>3921</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="50">
         <v>2204</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>64</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>18936</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>5134</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>27.1</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="13">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="12">
         <v>258816</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>43</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>301816</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="48">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="47">
         <v>13</v>
       </c>
-      <c r="O34" s="50"/>
-      <c r="P34" s="49">
+      <c r="O34" s="49"/>
+      <c r="P34" s="48">
         <v>4</v>
       </c>
-      <c r="Q34" s="49">
+      <c r="Q34" s="48">
         <v>20000</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>186</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>498</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>1355</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>27</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="13">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="12">
         <v>8524</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>68711</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>153951</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="11">
         <v>19.5</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>15.5</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <v>35</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="45">
         <v>1</v>
       </c>
-      <c r="O35" s="50"/>
-      <c r="P35" s="52">
+      <c r="O35" s="49"/>
+      <c r="P35" s="51">
         <v>23</v>
       </c>
-      <c r="Q35" s="50"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>38065</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>222</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>301</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="17">
         <v>15</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="17">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="16">
         <v>155223</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <v>62644</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <v>217867</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>22</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <v>13</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>34</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="45">
         <v>5</v>
       </c>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="49">
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="48">
         <v>3600000</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>35</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>117</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>6188</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>53</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="13">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="12">
         <v>277097</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>76737</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <v>353834</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="16">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="15">
         <v>76</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="46">
         <v>4</v>
       </c>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>56</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>23948</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="12">
         <v>6734</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>28.12</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="13">
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="12">
         <v>36984</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>103013</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <v>472853</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="11">
         <v>40.659999999999997</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>11.8</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <v>52.46</v>
       </c>
-      <c r="N38" s="48"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>59</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>20854</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>4232</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>20.29</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="13">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="12">
         <v>211246</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>9979</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>311036</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="46">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="45">
         <v>8</v>
       </c>
-      <c r="O39" s="49" t="s">
+      <c r="O39" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="P39" s="49">
+      <c r="P39" s="48">
         <v>3681</v>
       </c>
-      <c r="Q39" s="50"/>
+      <c r="Q39" s="49"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>37586</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>15436</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>342</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>22</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="13">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="12">
         <v>17751</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <v>77967</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <v>255477</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="11">
         <v>25</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <v>34.299999999999997</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="45">
         <v>5</v>
       </c>
-      <c r="O40" s="50"/>
-      <c r="P40" s="49">
+      <c r="O40" s="49"/>
+      <c r="P40" s="48">
         <v>330</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="48">
         <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>32</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>12</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>10905</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="25">
         <v>90875</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="13">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="12">
         <v>652704</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>127441</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <v>780145</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="11">
         <v>96.59</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>32.26</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="11">
         <v>128.85</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>62</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>19</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>3909</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>19.5</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="13">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="12">
         <v>204215</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>112153</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>316368</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <v>35</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="15">
         <v>15</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="15">
         <v>50</v>
       </c>
-      <c r="N42" s="48">
+      <c r="N42" s="47">
         <v>3</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="48">
         <v>7</v>
       </c>
-      <c r="P42" s="49">
+      <c r="P42" s="48">
         <v>25</v>
       </c>
-      <c r="Q42" s="50"/>
+      <c r="Q42" s="49"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>85569</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>31859</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="25">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="24">
         <v>21</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="24">
         <v>12</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M43" s="24">
         <v>33</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="45">
         <v>5</v>
       </c>
-      <c r="O43" s="50"/>
-      <c r="P43" s="51">
+      <c r="O43" s="49"/>
+      <c r="P43" s="50">
         <v>116</v>
       </c>
-      <c r="Q43" s="51">
+      <c r="Q43" s="50">
         <v>3026000</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>41</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>1405</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>26</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>18</v>
       </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="13">
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="12">
         <v>14029</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>59504</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <v>199794</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="11">
         <v>29.2</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <v>12.8</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="15">
         <v>42</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="45">
         <v>5</v>
       </c>
-      <c r="O44" s="50"/>
-      <c r="P44" s="49">
+      <c r="O44" s="49"/>
+      <c r="P44" s="48">
         <v>35</v>
       </c>
-      <c r="Q44" s="50"/>
+      <c r="Q44" s="49"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>39491</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>12739</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>3515</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>27.5</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="13">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="12">
         <v>172898</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>55314</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="12">
         <v>228212</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="11">
         <v>29.7</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <v>7.65</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="11">
         <v>37.36</v>
       </c>
-      <c r="N45" s="47">
+      <c r="N45" s="46">
         <v>4</v>
       </c>
-      <c r="O45" s="50"/>
-      <c r="P45" s="49">
+      <c r="O45" s="49"/>
+      <c r="P45" s="48">
         <v>42</v>
       </c>
-      <c r="Q45" s="50"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>7636</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>3871</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>237</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>65</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21">
+      <c r="F46" s="18"/>
+      <c r="G46" s="20">
         <v>65</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <v>118497</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <v>20857</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="12">
         <v>139354</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="16">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="15">
         <v>4785</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="47">
         <v>1</v>
       </c>
-      <c r="O46" s="50"/>
-      <c r="P46" s="49">
+      <c r="O46" s="49"/>
+      <c r="P46" s="48">
         <v>25</v>
       </c>
-      <c r="Q46" s="50"/>
+      <c r="Q46" s="49"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="13">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="12">
         <v>33542</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="13">
+      <c r="I47" s="18"/>
+      <c r="J47" s="12">
         <v>33542</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="12">
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="11">
         <v>36.299999999999997</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="45">
         <v>1</v>
       </c>
-      <c r="O47" s="50"/>
-      <c r="P47" s="52">
+      <c r="O47" s="49"/>
+      <c r="P47" s="51">
         <v>500</v>
       </c>
-      <c r="Q47" s="50"/>
+      <c r="Q47" s="49"/>
     </row>
     <row r="48" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>8913</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>3234</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>1783</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>55.13</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="13">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="12">
         <v>90906</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="12">
         <v>46642</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="12">
         <v>137549</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="12">
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="11">
         <v>22.75</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="45">
         <v>3</v>
       </c>
-      <c r="O48" s="49">
+      <c r="O48" s="48">
         <v>784</v>
       </c>
-      <c r="P48" s="49">
+      <c r="P48" s="48">
         <v>1508</v>
       </c>
-      <c r="Q48" s="50"/>
+      <c r="Q48" s="49"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>16805</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>639</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>1652</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <v>25.8</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="17">
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="16">
         <v>7972</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>10661</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="16">
         <v>90381</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="27">
         <v>14.28</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="27">
         <v>1.71</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="15">
         <v>16</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="46">
         <v>7</v>
       </c>
-      <c r="O49" s="51">
+      <c r="O49" s="50">
         <v>350</v>
       </c>
-      <c r="P49" s="51">
+      <c r="P49" s="50">
         <v>12</v>
       </c>
-      <c r="Q49" s="50"/>
+      <c r="Q49" s="49"/>
     </row>
     <row r="50" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29">
         <v>52761</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="29">
         <v>18292</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="29">
         <v>71053</v>
       </c>
-      <c r="K50" s="31">
+      <c r="K50" s="30">
         <v>7.5</v>
       </c>
-      <c r="L50" s="31">
+      <c r="L50" s="30">
         <v>0.9</v>
       </c>
-      <c r="M50" s="31">
+      <c r="M50" s="30">
         <v>8.4</v>
       </c>
-      <c r="N50" s="48">
+      <c r="N50" s="47">
         <v>9</v>
       </c>
-      <c r="O50" s="50"/>
-      <c r="P50" s="51">
+      <c r="O50" s="49"/>
+      <c r="P50" s="50">
         <v>1594</v>
       </c>
-      <c r="Q50" s="51">
+      <c r="Q50" s="50">
         <v>44357</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51" s="29">
         <v>29</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="29">
         <v>765</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="29">
         <v>1881</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>24.59</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30">
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29">
         <v>105426</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="29">
         <v>33559</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <v>138985</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="30">
         <v>11.8</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="30">
         <v>10.69</v>
       </c>
-      <c r="M51" s="31">
+      <c r="M51" s="30">
         <v>22.49</v>
       </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="51">
+      <c r="N51" s="45"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="50">
         <v>1</v>
       </c>
-      <c r="Q51" s="50"/>
+      <c r="Q51" s="49"/>
     </row>
     <row r="52" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="29">
         <v>25774</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="29">
         <v>9614</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="29">
         <v>1026</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="32">
         <v>10.67</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29">
         <v>94372</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="29">
         <v>33356</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="29">
         <v>127728</v>
       </c>
-      <c r="K52" s="31">
+      <c r="K52" s="30">
         <v>17.59</v>
       </c>
-      <c r="L52" s="31">
+      <c r="L52" s="30">
         <v>3.11</v>
       </c>
-      <c r="M52" s="31">
+      <c r="M52" s="30">
         <v>20.7</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="45">
         <v>1</v>
       </c>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="49">
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="48">
         <v>1633155</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="29">
         <v>84668</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="29">
         <v>35574</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="29">
         <v>3041</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="32">
         <v>8.5500000000000007</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30">
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29">
         <v>157894</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="29">
         <v>70241</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="29">
         <v>228135</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="47">
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="46">
         <v>4</v>
       </c>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="49">
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="48">
         <v>3550951</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="34">
         <v>102</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="34">
         <v>23334</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="34">
         <v>125</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <v>6</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="35">
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="34">
         <v>72</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I54" s="34">
         <v>29</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="34">
         <v>101</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="48">
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="47">
         <v>3</v>
       </c>
-      <c r="O54" s="52">
+      <c r="O54" s="51">
         <v>1236</v>
       </c>
-      <c r="P54" s="52">
+      <c r="P54" s="51">
         <v>791</v>
       </c>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="49"/>
     </row>
     <row r="55" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="29">
         <v>25512</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="29">
         <v>7911</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="29">
         <v>1103</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="32">
         <v>13.9</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30">
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29">
         <v>56983</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="29">
         <v>11454</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="29">
         <v>68436</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="46">
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="45">
         <v>5</v>
       </c>
-      <c r="O55" s="50"/>
-      <c r="P55" s="49">
+      <c r="O55" s="49"/>
+      <c r="P55" s="48">
         <v>1276</v>
       </c>
-      <c r="Q55" s="49">
+      <c r="Q55" s="48">
         <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="29">
         <v>10</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="29">
         <v>3</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="29">
         <v>11</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="36">
         <v>30</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30">
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29">
         <v>53669</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="29">
         <v>35539</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="29">
         <v>89208</v>
       </c>
-      <c r="K56" s="31">
+      <c r="K56" s="30">
         <v>12.97</v>
       </c>
-      <c r="L56" s="31">
+      <c r="L56" s="30">
         <v>4.8</v>
       </c>
-      <c r="M56" s="31">
+      <c r="M56" s="30">
         <v>17.77</v>
       </c>
-      <c r="N56" s="46">
+      <c r="N56" s="45">
         <v>3</v>
       </c>
-      <c r="O56" s="49">
+      <c r="O56" s="48">
         <v>1</v>
       </c>
-      <c r="P56" s="49">
+      <c r="P56" s="48">
         <v>1</v>
       </c>
-      <c r="Q56" s="50"/>
+      <c r="Q56" s="49"/>
     </row>
     <row r="57" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="29">
         <v>5621</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="29">
         <v>19739</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="29">
         <v>153</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="32">
         <v>7.75</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30">
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29">
         <v>65497</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="29">
         <v>7315</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="29">
         <v>138647</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="30">
         <v>9.82</v>
       </c>
-      <c r="L57" s="31">
+      <c r="L57" s="30">
         <v>14.26</v>
       </c>
-      <c r="M57" s="38">
+      <c r="M57" s="37">
         <v>24</v>
       </c>
-      <c r="N57" s="47">
+      <c r="N57" s="46">
         <v>6</v>
       </c>
-      <c r="O57" s="50"/>
-      <c r="P57" s="49">
+      <c r="O57" s="49"/>
+      <c r="P57" s="48">
         <v>2</v>
       </c>
-      <c r="Q57" s="50"/>
+      <c r="Q57" s="49"/>
     </row>
     <row r="58" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="29">
         <v>3142</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="29">
         <v>5621</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="37">
         <v>745</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="36">
         <v>19</v>
       </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30">
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29">
         <v>39438</v>
       </c>
-      <c r="I59" s="30">
+      <c r="I59" s="29">
         <v>1123</v>
       </c>
-      <c r="J59" s="30">
+      <c r="J59" s="29">
         <v>50668</v>
       </c>
-      <c r="K59" s="31">
+      <c r="K59" s="30">
         <v>5.32</v>
       </c>
-      <c r="L59" s="31">
+      <c r="L59" s="30">
         <v>2.14</v>
       </c>
-      <c r="M59" s="31">
+      <c r="M59" s="30">
         <v>7.46</v>
       </c>
-      <c r="N59" s="46">
+      <c r="N59" s="45">
         <v>2</v>
       </c>
-      <c r="O59" s="50"/>
-      <c r="P59" s="49">
+      <c r="O59" s="49"/>
+      <c r="P59" s="48">
         <v>300</v>
       </c>
-      <c r="Q59" s="50"/>
+      <c r="Q59" s="49"/>
     </row>
     <row r="60" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="29">
         <v>16416</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="29">
         <v>3407</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="37">
         <v>616</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="36">
         <v>18</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30">
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29">
         <v>30563</v>
       </c>
-      <c r="I60" s="30">
+      <c r="I60" s="29">
         <v>7446</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="29">
         <v>38029</v>
       </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="46">
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="45">
         <v>5</v>
       </c>
-      <c r="O60" s="52">
+      <c r="O60" s="51">
         <v>500</v>
       </c>
-      <c r="P60" s="52">
+      <c r="P60" s="51">
         <v>700</v>
       </c>
-      <c r="Q60" s="50"/>
+      <c r="Q60" s="49"/>
     </row>
     <row r="61" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="29">
         <v>7839</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="29">
         <v>3378</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="37">
         <v>624</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="32">
         <v>18.47</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30">
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29">
         <v>3907</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="29">
         <v>10279</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="29">
         <v>44348</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="30">
         <v>4.6500000000000004</v>
       </c>
-      <c r="L61" s="31">
+      <c r="L61" s="30">
         <v>1.31</v>
       </c>
-      <c r="M61" s="31">
+      <c r="M61" s="30">
         <v>5.96</v>
       </c>
-      <c r="N61" s="47">
+      <c r="N61" s="46">
         <v>1</v>
       </c>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="49">
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="48">
         <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="29">
         <v>24216</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="29">
         <v>7786</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="29">
         <v>1115</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="32">
         <v>14.32</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30">
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29">
         <v>535</v>
       </c>
-      <c r="I62" s="30">
+      <c r="I62" s="29">
         <v>18</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="29">
         <v>55</v>
       </c>
-      <c r="K62" s="31">
+      <c r="K62" s="30">
         <v>9</v>
       </c>
-      <c r="L62" s="31">
+      <c r="L62" s="30">
         <v>0.5</v>
       </c>
-      <c r="M62" s="31">
+      <c r="M62" s="30">
         <v>9.5</v>
       </c>
-      <c r="N62" s="48">
+      <c r="N62" s="47">
         <v>2</v>
       </c>
-      <c r="O62" s="50"/>
-      <c r="P62" s="49">
+      <c r="O62" s="49"/>
+      <c r="P62" s="48">
         <v>11</v>
       </c>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="49"/>
     </row>
     <row r="63" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="29">
         <v>28</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="29">
         <v>11</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="37">
         <v>577</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="32">
         <v>5.2</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <v>0</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="36">
         <v>0</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="29">
         <v>39171</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I63" s="29">
         <v>23669</v>
       </c>
-      <c r="J63" s="30">
+      <c r="J63" s="29">
         <v>6284</v>
       </c>
-      <c r="K63" s="31">
+      <c r="K63" s="30">
         <v>6.25</v>
       </c>
-      <c r="L63" s="31">
+      <c r="L63" s="30">
         <v>4.3099999999999996</v>
       </c>
-      <c r="M63" s="31">
+      <c r="M63" s="30">
         <v>10.56</v>
       </c>
-      <c r="N63" s="46">
+      <c r="N63" s="45">
         <v>2</v>
       </c>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="49">
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="48">
         <v>1056836</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="29">
         <v>16078</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="29">
         <v>5374</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29">
         <v>22846</v>
       </c>
-      <c r="I64" s="30">
+      <c r="I64" s="29">
         <v>21545</v>
       </c>
-      <c r="J64" s="30">
+      <c r="J64" s="29">
         <v>44391</v>
       </c>
-      <c r="K64" s="31">
+      <c r="K64" s="30">
         <v>2.8</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="30">
         <v>3.8</v>
       </c>
-      <c r="M64" s="31">
+      <c r="M64" s="30">
         <v>6.6</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N64" s="45">
         <v>1</v>
       </c>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="52">
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="51">
         <v>646022</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="29">
         <v>4</v>
       </c>
-      <c r="C65" s="30">
+      <c r="C65" s="29">
         <v>12</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="37">
         <v>240</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="36">
         <v>20</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30">
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29">
         <v>114</v>
       </c>
-      <c r="I65" s="30">
+      <c r="I65" s="29">
         <v>114</v>
       </c>
-      <c r="J65" s="30">
+      <c r="J65" s="29">
         <v>228</v>
       </c>
-      <c r="K65" s="31">
+      <c r="K65" s="30">
         <v>2.4</v>
       </c>
-      <c r="L65" s="31">
+      <c r="L65" s="30">
         <v>3</v>
       </c>
-      <c r="M65" s="31">
+      <c r="M65" s="30">
         <v>5.4</v>
       </c>
-      <c r="N65" s="47">
+      <c r="N65" s="46">
         <v>1</v>
       </c>
-      <c r="O65" s="50"/>
-      <c r="P65" s="49">
+      <c r="O65" s="49"/>
+      <c r="P65" s="48">
         <v>400</v>
       </c>
-      <c r="Q65" s="50"/>
+      <c r="Q65" s="49"/>
     </row>
     <row r="66" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="38">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="37">
         <v>396</v>
       </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30">
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29">
         <v>19966</v>
       </c>
-      <c r="I66" s="30">
+      <c r="I66" s="29">
         <v>12392</v>
       </c>
-      <c r="J66" s="30">
+      <c r="J66" s="29">
         <v>32358</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K66" s="30">
         <v>3.2</v>
       </c>
-      <c r="L66" s="31">
+      <c r="L66" s="30">
         <v>1.6</v>
       </c>
-      <c r="M66" s="31">
+      <c r="M66" s="30">
         <v>4.8</v>
       </c>
-      <c r="N66" s="48">
+      <c r="N66" s="47">
         <v>1</v>
       </c>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="52">
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="51">
         <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
     </row>
     <row r="68" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="30">
+      <c r="B68" s="29">
         <v>2609</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68" s="37">
         <v>870</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="37">
         <v>101</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="36">
         <v>12</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30">
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29">
         <v>5469</v>
       </c>
-      <c r="I68" s="30">
+      <c r="I68" s="29">
         <v>13533</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J68" s="29">
         <v>19002</v>
       </c>
-      <c r="K68" s="31">
+      <c r="K68" s="30">
         <v>0.66</v>
       </c>
-      <c r="L68" s="31">
+      <c r="L68" s="30">
         <v>2.77</v>
       </c>
-      <c r="M68" s="31">
+      <c r="M68" s="30">
         <v>3.43</v>
       </c>
-      <c r="N68" s="46">
+      <c r="N68" s="45">
         <v>1</v>
       </c>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="52">
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="51">
         <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="29">
         <v>28287</v>
       </c>
-      <c r="C69" s="30">
+      <c r="C69" s="29">
         <v>9377</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="37">
         <v>267</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="36">
         <v>3</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="36">
         <v>0</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="36">
         <v>0</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H69" s="29">
         <v>12475</v>
       </c>
-      <c r="I69" s="30">
+      <c r="I69" s="29">
         <v>21188</v>
       </c>
-      <c r="J69" s="30">
+      <c r="J69" s="29">
         <v>33663</v>
       </c>
-      <c r="K69" s="31">
+      <c r="K69" s="30">
         <v>1.55</v>
       </c>
-      <c r="L69" s="31">
+      <c r="L69" s="30">
         <v>2.3199999999999998</v>
       </c>
-      <c r="M69" s="31">
+      <c r="M69" s="30">
         <v>3.87</v>
       </c>
-      <c r="N69" s="47">
+      <c r="N69" s="46">
         <v>2</v>
       </c>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="49">
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="48">
         <v>630751</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="29">
         <v>1025</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="29">
         <v>4708</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="37">
         <v>218</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="32">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30">
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29">
         <v>9</v>
       </c>
-      <c r="I70" s="30">
+      <c r="I70" s="29">
         <v>215</v>
       </c>
-      <c r="J70" s="30">
+      <c r="J70" s="29">
         <v>305</v>
       </c>
-      <c r="K70" s="31">
+      <c r="K70" s="30">
         <v>1.79</v>
       </c>
-      <c r="L70" s="31">
+      <c r="L70" s="30">
         <v>3.57</v>
       </c>
-      <c r="M70" s="31">
+      <c r="M70" s="30">
         <v>5.36</v>
       </c>
-      <c r="N70" s="48">
+      <c r="N70" s="47">
         <v>1</v>
       </c>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="52">
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="51">
         <v>583</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71" s="29">
         <v>2953</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="29">
         <v>1008</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="37">
         <v>60</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="32">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29">
         <v>3506</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I71" s="29">
         <v>8411</v>
       </c>
-      <c r="J71" s="30">
+      <c r="J71" s="29">
         <v>11917</v>
       </c>
-      <c r="K71" s="31">
+      <c r="K71" s="30">
         <v>0.5</v>
       </c>
-      <c r="L71" s="31">
+      <c r="L71" s="30">
         <v>2</v>
       </c>
-      <c r="M71" s="31">
+      <c r="M71" s="30">
         <v>2.5</v>
       </c>
-      <c r="N71" s="46">
+      <c r="N71" s="45">
         <v>2</v>
       </c>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="49">
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="48">
         <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="29">
         <v>8152</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="29">
         <v>2636</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="37">
         <v>364</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E72" s="36">
         <v>14</v>
       </c>
-      <c r="F72" s="37">
+      <c r="F72" s="36">
         <v>0</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="36">
         <v>0</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="29">
         <v>19644</v>
       </c>
-      <c r="I72" s="30">
+      <c r="I72" s="29">
         <v>3049</v>
       </c>
-      <c r="J72" s="30">
+      <c r="J72" s="29">
         <v>50134</v>
       </c>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="46">
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="45">
         <v>1</v>
       </c>
-      <c r="O72" s="50"/>
-      <c r="P72" s="52">
+      <c r="O72" s="49"/>
+      <c r="P72" s="51">
         <v>650</v>
       </c>
-      <c r="Q72" s="50"/>
+      <c r="Q72" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
